--- a/data/trans_bre/P20-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,36</t>
+          <t>-2,05; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,97</t>
+          <t>1,96; 10,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,84</t>
+          <t>-0,55; 7,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,53</t>
+          <t>-2,13; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 119,5</t>
+          <t>-34,92; 118,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 306,92</t>
+          <t>22,53; 313,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 171,89</t>
+          <t>-8,19; 165,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 74,37</t>
+          <t>-27,18; 81,6</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 7,09</t>
+          <t>0,41; 7,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,86</t>
+          <t>1,87; 9,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,85</t>
+          <t>0,1; 8,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,87</t>
+          <t>-0,61; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 245,65</t>
+          <t>0,28; 248,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 360,2</t>
+          <t>27,95; 372,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 202,54</t>
+          <t>-3,28; 215,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 185,76</t>
+          <t>-9,55; 162,32</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,38</t>
+          <t>1,52; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,17</t>
+          <t>-2,8; 5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 10,34</t>
+          <t>-1,43; 9,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,75</t>
+          <t>0,03; 13,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,78; 370,32</t>
+          <t>26,59; 416,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 79,5</t>
+          <t>-31,4; 85,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 200,25</t>
+          <t>-21,95; 180,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 585,56</t>
+          <t>-3,31; 552,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,69</t>
+          <t>1,95; 6,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,93</t>
+          <t>1,67; 6,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,27</t>
+          <t>2,19; 6,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,13</t>
+          <t>-4,04; 1,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 179,36</t>
+          <t>37,19; 187,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 123,55</t>
+          <t>23,95; 129,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,22; 187,54</t>
+          <t>40,98; 181,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 40,93</t>
+          <t>-56,02; 38,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,08</t>
+          <t>-0,23; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,13</t>
+          <t>-0,5; 6,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,29</t>
+          <t>0,37; 5,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -0,68</t>
+          <t>-6,75; -0,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 201,46</t>
+          <t>-5,07; 205,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 115,06</t>
+          <t>-5,11; 114,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 209,63</t>
+          <t>1,94; 203,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,71; -10,21</t>
+          <t>-62,44; -9,66</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,94</t>
+          <t>2,73; 6,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,91</t>
+          <t>1,72; 6,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,29</t>
+          <t>-0,14; 5,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,88</t>
+          <t>1,53; 5,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,41; 2192,31</t>
+          <t>59,52; 2049,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,35; 469,19</t>
+          <t>25,41; 480,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 316,74</t>
+          <t>-7,99; 322,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 2108,31</t>
+          <t>7,42; 1844,8</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,39</t>
+          <t>2,23; 4,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,84</t>
+          <t>2,13; 4,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,12</t>
+          <t>1,68; 4,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,9</t>
+          <t>-1,04; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,17; 119,96</t>
+          <t>47,23; 121,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,19; 89,22</t>
+          <t>32,13; 92,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,26; 95,58</t>
+          <t>30,55; 93,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 40,79</t>
+          <t>-16,23; 41,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
